--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value168.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value168.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.518139226888964</v>
+        <v>0.8708921670913696</v>
       </c>
       <c r="B1">
-        <v>1.660659816506149</v>
+        <v>6.209417343139648</v>
       </c>
       <c r="C1">
-        <v>1.64569034308085</v>
+        <v>2.865254163742065</v>
       </c>
       <c r="D1">
-        <v>2.062039468543569</v>
+        <v>1.957189917564392</v>
       </c>
       <c r="E1">
-        <v>2.245171558892141</v>
+        <v>1.862564325332642</v>
       </c>
     </row>
   </sheetData>
